--- a/iterationsNORMAL/iter_2/data.xlsx
+++ b/iterationsNORMAL/iter_2/data.xlsx
@@ -453,1652 +453,1652 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>-33.612208109375</v>
+        <v>-19.70104373735831</v>
       </c>
       <c r="B2" t="n">
-        <v>-21.59262048721779</v>
+        <v>24.04948166990777</v>
       </c>
       <c r="C2" t="n">
-        <v>-16.2755698882839</v>
+        <v>-35.00947557580125</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>21.22503964083132</v>
+        <v>28.79162207629268</v>
       </c>
       <c r="B3" t="n">
-        <v>24.10820351514778</v>
+        <v>-38.78145948468548</v>
       </c>
       <c r="C3" t="n">
-        <v>27.61239497085636</v>
+        <v>20.94861097092716</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>-5.5900078226256</v>
+        <v>26.04608234800812</v>
       </c>
       <c r="B4" t="n">
-        <v>21.16407511825345</v>
+        <v>-14.66585712914892</v>
       </c>
       <c r="C4" t="n">
-        <v>-19.15973016165319</v>
+        <v>29.28434389073351</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>10.21201202055611</v>
+        <v>23.75617785840605</v>
       </c>
       <c r="B5" t="n">
-        <v>21.01939460000184</v>
+        <v>26.84670029050945</v>
       </c>
       <c r="C5" t="n">
-        <v>-29.33976631593193</v>
+        <v>-27.97548498932488</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>65.58597497036146</v>
+        <v>32.33434682411622</v>
       </c>
       <c r="B6" t="n">
-        <v>-20.72809318401258</v>
+        <v>-23.03233555432012</v>
       </c>
       <c r="C6" t="n">
-        <v>-22.68900324415539</v>
+        <v>-37.66357360113211</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>1.528690185540572</v>
+        <v>14.49009192984704</v>
       </c>
       <c r="B7" t="n">
-        <v>14.0465006583459</v>
+        <v>-31.53694431972142</v>
       </c>
       <c r="C7" t="n">
-        <v>-17.97636239633973</v>
+        <v>-23.15465897141961</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>-24.81804633965332</v>
+        <v>-22.49499840183803</v>
       </c>
       <c r="B8" t="n">
-        <v>54.50805794863157</v>
+        <v>31.09021063269664</v>
       </c>
       <c r="C8" t="n">
-        <v>28.13199227279952</v>
+        <v>-11.61057662968718</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>15.47150552018091</v>
+        <v>-22.88969339906523</v>
       </c>
       <c r="B9" t="n">
-        <v>14.33876208456408</v>
+        <v>21.08480225892817</v>
       </c>
       <c r="C9" t="n">
-        <v>-30.79394354545022</v>
+        <v>-18.32683545955862</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>-24.81033287200356</v>
+        <v>30.54150797446428</v>
       </c>
       <c r="B10" t="n">
-        <v>48.89412383144896</v>
+        <v>-37.41475915372012</v>
       </c>
       <c r="C10" t="n">
-        <v>-25.49543805271208</v>
+        <v>6.122934319947875</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>-32.99038541600867</v>
+        <v>26.91652021947568</v>
       </c>
       <c r="B11" t="n">
-        <v>-21.6975619698929</v>
+        <v>3.231439010857788</v>
       </c>
       <c r="C11" t="n">
-        <v>-29.27575122706961</v>
+        <v>30.67632377806916</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>57.21857536831251</v>
+        <v>-29.29901009434994</v>
       </c>
       <c r="B12" t="n">
-        <v>-26.54498551497946</v>
+        <v>-32.28903905409542</v>
       </c>
       <c r="C12" t="n">
-        <v>-5.186372816093806</v>
+        <v>22.93583748384983</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>11.36965303005562</v>
+        <v>-17.71621032625056</v>
       </c>
       <c r="B13" t="n">
-        <v>30.99107635037708</v>
+        <v>34.18987125358408</v>
       </c>
       <c r="C13" t="n">
-        <v>2.770895651765668</v>
+        <v>11.20692472554711</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>-33.54544583410306</v>
+        <v>15.94684814248153</v>
       </c>
       <c r="B14" t="n">
-        <v>-18.76573480130217</v>
+        <v>34.66573520297543</v>
       </c>
       <c r="C14" t="n">
-        <v>6.973138196041742</v>
+        <v>-27.3152992710259</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>22.12676736565177</v>
+        <v>-13.54737638049393</v>
       </c>
       <c r="B15" t="n">
-        <v>32.5797355173317</v>
+        <v>-39.21466062157302</v>
       </c>
       <c r="C15" t="n">
-        <v>-19.98531460011129</v>
+        <v>24.80837696694015</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>-36.30215195004654</v>
+        <v>-49.78911185105228</v>
       </c>
       <c r="B16" t="n">
-        <v>-27.2188120779904</v>
+        <v>26.59466341546489</v>
       </c>
       <c r="C16" t="n">
-        <v>-43.34123955372726</v>
+        <v>13.29237216403218</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>17.50883772954121</v>
+        <v>-44.87305260942961</v>
       </c>
       <c r="B17" t="n">
-        <v>32.94575746708041</v>
+        <v>28.1201457074008</v>
       </c>
       <c r="C17" t="n">
-        <v>14.50689884937405</v>
+        <v>14.64204303324036</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>43.49554570196261</v>
+        <v>-5.188705484883958</v>
       </c>
       <c r="B18" t="n">
-        <v>-31.97344409049858</v>
+        <v>-28.07113799506401</v>
       </c>
       <c r="C18" t="n">
-        <v>-23.76673750733162</v>
+        <v>-21.69828241916215</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>-29.86482045389103</v>
+        <v>-20.26731009593773</v>
       </c>
       <c r="B19" t="n">
-        <v>-20.12283154576278</v>
+        <v>-27.74170981164747</v>
       </c>
       <c r="C19" t="n">
-        <v>-31.56653458773109</v>
+        <v>-16.61927872225773</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>-15.96766313519035</v>
+        <v>-17.50495191385713</v>
       </c>
       <c r="B20" t="n">
-        <v>-22.11490867905397</v>
+        <v>17.43700295572777</v>
       </c>
       <c r="C20" t="n">
-        <v>-15.27537022620953</v>
+        <v>-20.90334923893067</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>-31.41216674559479</v>
+        <v>-27.09375901741302</v>
       </c>
       <c r="B21" t="n">
-        <v>44.38346284273737</v>
+        <v>-35.09735825429052</v>
       </c>
       <c r="C21" t="n">
-        <v>-7.96942831353668</v>
+        <v>18.69234478155975</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>-28.06831304695175</v>
+        <v>26.38417861473054</v>
       </c>
       <c r="B22" t="n">
-        <v>37.85689897015047</v>
+        <v>-36.39766178228555</v>
       </c>
       <c r="C22" t="n">
-        <v>46.17791694359892</v>
+        <v>8.78915419699756</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>-29.46681262327765</v>
+        <v>-12.03095619195652</v>
       </c>
       <c r="B23" t="n">
-        <v>-16.12627134013793</v>
+        <v>-26.81954605919077</v>
       </c>
       <c r="C23" t="n">
-        <v>-13.23783819979398</v>
+        <v>24.1142036314914</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>-28.83099824830295</v>
+        <v>29.73492045047344</v>
       </c>
       <c r="B24" t="n">
-        <v>-32.3425050677811</v>
+        <v>16.05857348280564</v>
       </c>
       <c r="C24" t="n">
-        <v>-11.36905000768499</v>
+        <v>-18.44985585683931</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>38.16125351854615</v>
+        <v>-30.91941378105702</v>
       </c>
       <c r="B25" t="n">
-        <v>-32.20014472567354</v>
+        <v>-2.798257263776497</v>
       </c>
       <c r="C25" t="n">
-        <v>-27.18827480613547</v>
+        <v>42.39830359659845</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>-33.28790990885737</v>
+        <v>-23.20242517654905</v>
       </c>
       <c r="B26" t="n">
-        <v>22.57130801098426</v>
+        <v>24.02422911390249</v>
       </c>
       <c r="C26" t="n">
-        <v>-31.6613183879743</v>
+        <v>19.28297782629978</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>-25.40309572844663</v>
+        <v>32.17837976503546</v>
       </c>
       <c r="B27" t="n">
-        <v>0.2017403686307122</v>
+        <v>25.28302434377332</v>
       </c>
       <c r="C27" t="n">
-        <v>-21.23700634832822</v>
+        <v>26.6359743566728</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>34.62564771825337</v>
+        <v>31.73248594213813</v>
       </c>
       <c r="B28" t="n">
-        <v>-1.079326296772301</v>
+        <v>-14.51734421248024</v>
       </c>
       <c r="C28" t="n">
-        <v>-14.85899643639167</v>
+        <v>-14.8188460542384</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>-29.49538570572463</v>
+        <v>27.17372079883807</v>
       </c>
       <c r="B29" t="n">
-        <v>32.9327085966235</v>
+        <v>34.5654837186737</v>
       </c>
       <c r="C29" t="n">
-        <v>48.64412495960631</v>
+        <v>37.35148326939688</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>-9.462280516818552</v>
+        <v>23.93706941560849</v>
       </c>
       <c r="B30" t="n">
-        <v>-20.20912468445207</v>
+        <v>-38.790618536002</v>
       </c>
       <c r="C30" t="n">
-        <v>-19.49868655459317</v>
+        <v>27.52631452850325</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>62.4023354205934</v>
+        <v>-17.45535733142153</v>
       </c>
       <c r="B31" t="n">
-        <v>38.95664614044747</v>
+        <v>23.5955082117105</v>
       </c>
       <c r="C31" t="n">
-        <v>34.32354452371998</v>
+        <v>-38.00804448613498</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>-23.50289796478874</v>
+        <v>-23.10396940289</v>
       </c>
       <c r="B32" t="n">
-        <v>50.01761380528397</v>
+        <v>23.826949681819</v>
       </c>
       <c r="C32" t="n">
-        <v>-33.72077407770839</v>
+        <v>-27.78607480358746</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>42.15631205335884</v>
+        <v>24.82447620249838</v>
       </c>
       <c r="B33" t="n">
-        <v>55.12511851566841</v>
+        <v>-29.00907574847706</v>
       </c>
       <c r="C33" t="n">
-        <v>-20.92581264031532</v>
+        <v>-24.7030478264393</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>-21.65796047044232</v>
+        <v>-15.0774537887396</v>
       </c>
       <c r="B34" t="n">
-        <v>-18.49189709956267</v>
+        <v>-15.65300488020883</v>
       </c>
       <c r="C34" t="n">
-        <v>29.77722004308275</v>
+        <v>-19.21672302150863</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>18.50994494728604</v>
+        <v>-27.97074498263263</v>
       </c>
       <c r="B35" t="n">
-        <v>41.41801409084525</v>
+        <v>25.39951815503594</v>
       </c>
       <c r="C35" t="n">
-        <v>-22.59692969660124</v>
+        <v>25.32041226974529</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>43.38961804698183</v>
+        <v>-26.73097885442327</v>
       </c>
       <c r="B36" t="n">
-        <v>28.72635444676134</v>
+        <v>-34.33226386755087</v>
       </c>
       <c r="C36" t="n">
-        <v>-28.85229155405757</v>
+        <v>-21.33384334742958</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>58.71039433995575</v>
+        <v>-14.06532813464166</v>
       </c>
       <c r="B37" t="n">
-        <v>-34.34422386874796</v>
+        <v>27.23635978767572</v>
       </c>
       <c r="C37" t="n">
-        <v>41.92714790850269</v>
+        <v>-12.0504421275579</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>27.7629790494028</v>
+        <v>17.11943447599284</v>
       </c>
       <c r="B38" t="n">
-        <v>51.07971086787781</v>
+        <v>29.02238399882119</v>
       </c>
       <c r="C38" t="n">
-        <v>-28.76140545771087</v>
+        <v>23.1694223711409</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>-42.72128834709533</v>
+        <v>28.62755886884531</v>
       </c>
       <c r="B39" t="n">
-        <v>30.73726137356384</v>
+        <v>23.53097084360125</v>
       </c>
       <c r="C39" t="n">
-        <v>-27.73445056125958</v>
+        <v>31.1141751279363</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>-40.18732564463716</v>
+        <v>37.24735033011647</v>
       </c>
       <c r="B40" t="n">
-        <v>-19.87651794797687</v>
+        <v>-25.85323908382144</v>
       </c>
       <c r="C40" t="n">
-        <v>-28.49333961054852</v>
+        <v>29.73698362629859</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>1.488659534443193</v>
+        <v>47.07631765643662</v>
       </c>
       <c r="B41" t="n">
-        <v>41.84432938587773</v>
+        <v>-14.46987527726643</v>
       </c>
       <c r="C41" t="n">
-        <v>27.46961122676981</v>
+        <v>-34.11427847333338</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>-20.7494273883321</v>
+        <v>-22.47698078684512</v>
       </c>
       <c r="B42" t="n">
-        <v>54.50922142990818</v>
+        <v>-23.66706287608262</v>
       </c>
       <c r="C42" t="n">
-        <v>25.02496942542206</v>
+        <v>-23.1726711727799</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>-41.25241093958979</v>
+        <v>-9.577418837081231</v>
       </c>
       <c r="B43" t="n">
-        <v>30.71555523464468</v>
+        <v>-17.64544745587154</v>
       </c>
       <c r="C43" t="n">
-        <v>30.06333287996983</v>
+        <v>-41.34759539485859</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>-42.08460501595766</v>
+        <v>26.1036689952953</v>
       </c>
       <c r="B44" t="n">
-        <v>-3.812999072367484</v>
+        <v>13.59570856419356</v>
       </c>
       <c r="C44" t="n">
-        <v>15.16936029192013</v>
+        <v>19.37925733509098</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>-29.42497808586931</v>
+        <v>-22.16902461718994</v>
       </c>
       <c r="B45" t="n">
-        <v>-33.53410453601398</v>
+        <v>-28.11752817095631</v>
       </c>
       <c r="C45" t="n">
-        <v>-30.19560341364613</v>
+        <v>26.31479811750793</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>7.558341182675093</v>
+        <v>-18.94134404692903</v>
       </c>
       <c r="B46" t="n">
-        <v>-35.39831534274584</v>
+        <v>-34.86960357805185</v>
       </c>
       <c r="C46" t="n">
-        <v>50.50649284261448</v>
+        <v>-42.07783644412746</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>-27.27793709730507</v>
+        <v>25.0408100530134</v>
       </c>
       <c r="B47" t="n">
-        <v>-24.6549411747471</v>
+        <v>23.73270838519037</v>
       </c>
       <c r="C47" t="n">
-        <v>-7.398711857598117</v>
+        <v>-24.75691215700935</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>-24.50619101262791</v>
+        <v>25.54270873627515</v>
       </c>
       <c r="B48" t="n">
-        <v>30.28861902716312</v>
+        <v>-11.92250290212526</v>
       </c>
       <c r="C48" t="n">
-        <v>-20.74503951859081</v>
+        <v>-31.45185227569991</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>-21.97283881642657</v>
+        <v>-24.28001221802505</v>
       </c>
       <c r="B49" t="n">
-        <v>-21.97155386137786</v>
+        <v>-27.27639373373711</v>
       </c>
       <c r="C49" t="n">
-        <v>-25.73716496118434</v>
+        <v>-15.4839180240282</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>-19.60557087328908</v>
+        <v>-25.09023915874463</v>
       </c>
       <c r="B50" t="n">
-        <v>26.90671051652733</v>
+        <v>-21.10631510110794</v>
       </c>
       <c r="C50" t="n">
-        <v>-24.78376781313393</v>
+        <v>-31.22176276116572</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>-21.42471391452243</v>
+        <v>-36.20335822507639</v>
       </c>
       <c r="B51" t="n">
-        <v>-11.31666381498108</v>
+        <v>-26.39396941097339</v>
       </c>
       <c r="C51" t="n">
-        <v>-21.22985484158416</v>
+        <v>2.864199524662102</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>64.54540496305837</v>
+        <v>-15.26695267345085</v>
       </c>
       <c r="B52" t="n">
-        <v>-26.66850507155549</v>
+        <v>-24.8516108618694</v>
       </c>
       <c r="C52" t="n">
-        <v>45.9030824587042</v>
+        <v>24.31648446959399</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>18.00650846377633</v>
+        <v>-22.23817253299018</v>
       </c>
       <c r="B53" t="n">
-        <v>33.36682643574909</v>
+        <v>-20.3324834061883</v>
       </c>
       <c r="C53" t="n">
-        <v>-15.36535633406047</v>
+        <v>-25.4804271379622</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>-16.01459775672722</v>
+        <v>33.21154690135406</v>
       </c>
       <c r="B54" t="n">
-        <v>9.686483676726994</v>
+        <v>46.44797432749784</v>
       </c>
       <c r="C54" t="n">
-        <v>47.86886665690127</v>
+        <v>28.66200737066852</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>-19.66719156487778</v>
+        <v>-40.4897483474919</v>
       </c>
       <c r="B55" t="n">
-        <v>-15.37168732223657</v>
+        <v>38.9133959095319</v>
       </c>
       <c r="C55" t="n">
-        <v>-29.33486480145558</v>
+        <v>-23.91963298269294</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>-3.703773189639907</v>
+        <v>-36.44270001208259</v>
       </c>
       <c r="B56" t="n">
-        <v>-21.85635272588038</v>
+        <v>-22.73792177372107</v>
       </c>
       <c r="C56" t="n">
-        <v>-30.91813748696384</v>
+        <v>17.84191186578592</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>-30.69821560360232</v>
+        <v>14.13152340108735</v>
       </c>
       <c r="B57" t="n">
-        <v>17.14636911857643</v>
+        <v>-24.79448196179493</v>
       </c>
       <c r="C57" t="n">
-        <v>6.641824216809801</v>
+        <v>-33.97098313960984</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>-27.15990282881659</v>
+        <v>-29.11994098091195</v>
       </c>
       <c r="B58" t="n">
-        <v>2.869678810210576</v>
+        <v>-26.70811562008062</v>
       </c>
       <c r="C58" t="n">
-        <v>28.69725011007125</v>
+        <v>33.29830664115075</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>9.910970079103848</v>
+        <v>-29.20455676440796</v>
       </c>
       <c r="B59" t="n">
-        <v>-24.85507054302333</v>
+        <v>-11.08931497071744</v>
       </c>
       <c r="C59" t="n">
-        <v>-20.80012343175752</v>
+        <v>41.07618464494593</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>12.25515607011445</v>
+        <v>29.16187343265895</v>
       </c>
       <c r="B60" t="n">
-        <v>-35.19515610719894</v>
+        <v>-20.1903414965944</v>
       </c>
       <c r="C60" t="n">
-        <v>24.23626346160808</v>
+        <v>-11.41651871907964</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>-38.00620305727119</v>
+        <v>33.93632544657036</v>
       </c>
       <c r="B61" t="n">
-        <v>-39.44581839165459</v>
+        <v>26.88208970932762</v>
       </c>
       <c r="C61" t="n">
-        <v>10.40769404404632</v>
+        <v>29.80096079263656</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>-22.07181734024326</v>
+        <v>29.91392199289444</v>
       </c>
       <c r="B62" t="n">
-        <v>56.89711071099004</v>
+        <v>38.10693163588083</v>
       </c>
       <c r="C62" t="n">
-        <v>-34.1297289750882</v>
+        <v>26.07975900729804</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>-26.19339707297882</v>
+        <v>24.32537961204187</v>
       </c>
       <c r="B63" t="n">
-        <v>7.327990421793677</v>
+        <v>-18.56770619314602</v>
       </c>
       <c r="C63" t="n">
-        <v>33.53196479185147</v>
+        <v>0.1949482860792717</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>-14.60784910841086</v>
+        <v>-20.2790352814508</v>
       </c>
       <c r="B64" t="n">
-        <v>3.585321643106226</v>
+        <v>28.39250498006901</v>
       </c>
       <c r="C64" t="n">
-        <v>-19.90879407256523</v>
+        <v>-25.56793737554854</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>-26.93724291007247</v>
+        <v>24.56593386378129</v>
       </c>
       <c r="B65" t="n">
-        <v>-21.45720504592708</v>
+        <v>23.82769844603496</v>
       </c>
       <c r="C65" t="n">
-        <v>21.63258934202136</v>
+        <v>-5.721679642718205</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>-29.22788004644344</v>
+        <v>30.98712869558269</v>
       </c>
       <c r="B66" t="n">
-        <v>-42.86197323517864</v>
+        <v>-25.43264197041622</v>
       </c>
       <c r="C66" t="n">
-        <v>-33.81343733993602</v>
+        <v>21.34537369320955</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>13.44167045094627</v>
+        <v>-41.25049025513606</v>
       </c>
       <c r="B67" t="n">
-        <v>-1.774363891084793</v>
+        <v>-25.10364159477115</v>
       </c>
       <c r="C67" t="n">
-        <v>25.33970176752311</v>
+        <v>-30.22937580852229</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>-34.55662974498087</v>
+        <v>24.86005681764307</v>
       </c>
       <c r="B68" t="n">
-        <v>15.63369880862502</v>
+        <v>28.6631894494854</v>
       </c>
       <c r="C68" t="n">
-        <v>34.02991742726189</v>
+        <v>4.210549533769767</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>-22.63395073188748</v>
+        <v>25.55481320395017</v>
       </c>
       <c r="B69" t="n">
-        <v>-10.9981631995755</v>
+        <v>17.86929930188115</v>
       </c>
       <c r="C69" t="n">
-        <v>-31.3125603014437</v>
+        <v>18.37093254655772</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>-13.08511882809618</v>
+        <v>22.63684412792745</v>
       </c>
       <c r="B70" t="n">
-        <v>-32.01270838857639</v>
+        <v>-33.08540561196707</v>
       </c>
       <c r="C70" t="n">
-        <v>-22.80528267649512</v>
+        <v>-14.29060486796067</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>31.77953876936518</v>
+        <v>-31.65424842939249</v>
       </c>
       <c r="B71" t="n">
-        <v>-34.79222392844466</v>
+        <v>37.82830733259841</v>
       </c>
       <c r="C71" t="n">
-        <v>72.21583551103768</v>
+        <v>-21.98525569044237</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>-31.94248569738226</v>
+        <v>-17.77592123070737</v>
       </c>
       <c r="B72" t="n">
-        <v>-47.52175570017305</v>
+        <v>-24.40140496051252</v>
       </c>
       <c r="C72" t="n">
-        <v>-35.35274551417857</v>
+        <v>29.27268411169446</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>-18.58832181015068</v>
+        <v>-25.07906031570572</v>
       </c>
       <c r="B73" t="n">
-        <v>-20.89698097080924</v>
+        <v>-33.59028270227865</v>
       </c>
       <c r="C73" t="n">
-        <v>-23.38117642803888</v>
+        <v>20.45693624301263</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>-32.35015055222858</v>
+        <v>24.13946377085448</v>
       </c>
       <c r="B74" t="n">
-        <v>24.0258566353768</v>
+        <v>19.92969211900031</v>
       </c>
       <c r="C74" t="n">
-        <v>38.5216727011433</v>
+        <v>28.77804904820014</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>-0.4812426480157624</v>
+        <v>24.70764215785335</v>
       </c>
       <c r="B75" t="n">
-        <v>-23.3706187400654</v>
+        <v>29.23507883245665</v>
       </c>
       <c r="C75" t="n">
-        <v>-31.11862377230007</v>
+        <v>-11.16572120149554</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>33.75148692991601</v>
+        <v>-21.34436157239249</v>
       </c>
       <c r="B76" t="n">
-        <v>-17.63321686776125</v>
+        <v>-37.80094685109272</v>
       </c>
       <c r="C76" t="n">
-        <v>11.60342934343245</v>
+        <v>25.56797921499142</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>-19.1651688720264</v>
+        <v>-32.49883827235957</v>
       </c>
       <c r="B77" t="n">
-        <v>-31.31314665458051</v>
+        <v>-26.75897724822957</v>
       </c>
       <c r="C77" t="n">
-        <v>-18.48006292028798</v>
+        <v>34.03851910050075</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>-20.03597203436105</v>
+        <v>-18.61234697258557</v>
       </c>
       <c r="B78" t="n">
-        <v>-21.38383902635672</v>
+        <v>19.10124289261791</v>
       </c>
       <c r="C78" t="n">
-        <v>3.519436259138151</v>
+        <v>14.13894973614895</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>-16.99079152408119</v>
+        <v>33.59647126044749</v>
       </c>
       <c r="B79" t="n">
-        <v>-35.58340485095387</v>
+        <v>20.59773558607811</v>
       </c>
       <c r="C79" t="n">
-        <v>28.42724501238034</v>
+        <v>37.42879624663943</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>45.02351263962525</v>
+        <v>-23.8129170022569</v>
       </c>
       <c r="B80" t="n">
-        <v>1.008200550286695</v>
+        <v>17.34184503490836</v>
       </c>
       <c r="C80" t="n">
-        <v>8.129412599026159</v>
+        <v>35.19341585675188</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>27.51041678889984</v>
+        <v>-9.316925807694489</v>
       </c>
       <c r="B81" t="n">
-        <v>-43.75881569497766</v>
+        <v>18.62111430899272</v>
       </c>
       <c r="C81" t="n">
-        <v>-30.66148516844226</v>
+        <v>-8.575926354010504</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>13.85315980310162</v>
+        <v>-24.11365032202415</v>
       </c>
       <c r="B82" t="n">
-        <v>9.374918707752691</v>
+        <v>-24.55078411875641</v>
       </c>
       <c r="C82" t="n">
-        <v>6.936095842381747</v>
+        <v>19.9015140613663</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>-27.70792711812917</v>
+        <v>-16.47489561336095</v>
       </c>
       <c r="B83" t="n">
-        <v>-25.40654475167892</v>
+        <v>18.45510472318468</v>
       </c>
       <c r="C83" t="n">
-        <v>-18.3703924804573</v>
+        <v>13.83323634620144</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>28.74020886193936</v>
+        <v>-16.66608435438279</v>
       </c>
       <c r="B84" t="n">
-        <v>-17.48535200454441</v>
+        <v>-9.76706456811239</v>
       </c>
       <c r="C84" t="n">
-        <v>-32.6520542361861</v>
+        <v>-26.99661568790837</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>25.10371249116777</v>
+        <v>19.8300992092622</v>
       </c>
       <c r="B85" t="n">
-        <v>-20.2950725871251</v>
+        <v>-29.19659036023843</v>
       </c>
       <c r="C85" t="n">
-        <v>19.73250757099112</v>
+        <v>-9.263244251080351</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>64.94706375396603</v>
+        <v>-30.3805902145212</v>
       </c>
       <c r="B86" t="n">
-        <v>-26.09032734831281</v>
+        <v>-13.50249036058977</v>
       </c>
       <c r="C86" t="n">
-        <v>-5.676519400177414</v>
+        <v>33.04827987046992</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>34.0689201002259</v>
+        <v>21.14900637233483</v>
       </c>
       <c r="B87" t="n">
-        <v>20.41139871302993</v>
+        <v>-16.88974916886774</v>
       </c>
       <c r="C87" t="n">
-        <v>-16.72456180983949</v>
+        <v>-34.25283478415674</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>-25.32366120587792</v>
+        <v>-20.16417708240272</v>
       </c>
       <c r="B88" t="n">
-        <v>88.34794297677897</v>
+        <v>-22.60863409506251</v>
       </c>
       <c r="C88" t="n">
-        <v>46.97861469572867</v>
+        <v>-26.32621779515901</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>55.18123828322341</v>
+        <v>-18.11847669546046</v>
       </c>
       <c r="B89" t="n">
-        <v>-22.55931660764137</v>
+        <v>21.31087616081549</v>
       </c>
       <c r="C89" t="n">
-        <v>-34.39089315164823</v>
+        <v>-1.959283192255704</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>-15.25672261469198</v>
+        <v>33.66045930140474</v>
       </c>
       <c r="B90" t="n">
-        <v>30.43604907153486</v>
+        <v>26.90890891415054</v>
       </c>
       <c r="C90" t="n">
-        <v>12.16901832849965</v>
+        <v>22.11191803274696</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>-20.22199342225062</v>
+        <v>32.69560400623654</v>
       </c>
       <c r="B91" t="n">
-        <v>-35.27629106011693</v>
+        <v>-17.66927167470405</v>
       </c>
       <c r="C91" t="n">
-        <v>5.052173707541079</v>
+        <v>-21.30484900567899</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>-14.26801879224282</v>
+        <v>-10.94992144588028</v>
       </c>
       <c r="B92" t="n">
-        <v>57.21235493172547</v>
+        <v>-9.348729165101807</v>
       </c>
       <c r="C92" t="n">
-        <v>39.53257800454051</v>
+        <v>-27.07126829151649</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>-19.35065059483887</v>
+        <v>30.22642687336916</v>
       </c>
       <c r="B93" t="n">
-        <v>39.13003109937958</v>
+        <v>25.48674016379818</v>
       </c>
       <c r="C93" t="n">
-        <v>-10.53109617854374</v>
+        <v>25.91969810709794</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>62.15464215986476</v>
+        <v>-21.66832044233122</v>
       </c>
       <c r="B94" t="n">
-        <v>0.5014292483283286</v>
+        <v>22.05515079249571</v>
       </c>
       <c r="C94" t="n">
-        <v>11.07026372339519</v>
+        <v>-27.0804471553588</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>-38.79437916450322</v>
+        <v>-1.270846303854917</v>
       </c>
       <c r="B95" t="n">
-        <v>51.40380881146383</v>
+        <v>-37.10452621195378</v>
       </c>
       <c r="C95" t="n">
-        <v>-15.2926781642517</v>
+        <v>44.63844386044428</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>-38.18708577461858</v>
+        <v>-8.474955002277383</v>
       </c>
       <c r="B96" t="n">
-        <v>38.26507168236519</v>
+        <v>-31.90979869377933</v>
       </c>
       <c r="C96" t="n">
-        <v>4.929288812350524</v>
+        <v>-36.18782914500255</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>51.52551521100865</v>
+        <v>17.81259201291148</v>
       </c>
       <c r="B97" t="n">
-        <v>78.46674917051853</v>
+        <v>30.66864996386225</v>
       </c>
       <c r="C97" t="n">
-        <v>22.32824969586541</v>
+        <v>-26.09138701762307</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>-34.2511388075095</v>
+        <v>24.98136100827166</v>
       </c>
       <c r="B98" t="n">
-        <v>-20.63367997434296</v>
+        <v>-35.6058761281481</v>
       </c>
       <c r="C98" t="n">
-        <v>-34.305023596529</v>
+        <v>-31.9205898335981</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>-20.52256116162915</v>
+        <v>26.92390027288706</v>
       </c>
       <c r="B99" t="n">
-        <v>41.49314056279528</v>
+        <v>39.33587893878202</v>
       </c>
       <c r="C99" t="n">
-        <v>-11.00241824522437</v>
+        <v>-16.77214158177851</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>-28.87020686813499</v>
+        <v>-24.99216634011201</v>
       </c>
       <c r="B100" t="n">
-        <v>-12.47492725895533</v>
+        <v>15.52753762713172</v>
       </c>
       <c r="C100" t="n">
-        <v>-24.80987446901896</v>
+        <v>18.24943511607334</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>-14.46450837272358</v>
+        <v>-35.51364818931947</v>
       </c>
       <c r="B101" t="n">
-        <v>65.02679241854031</v>
+        <v>-31.90938182201847</v>
       </c>
       <c r="C101" t="n">
-        <v>-33.71305017379488</v>
+        <v>-40.23657472694931</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>16.23606261813082</v>
+        <v>27.45298104464493</v>
       </c>
       <c r="B102" t="n">
-        <v>-26.33049644686186</v>
+        <v>22.0178176532963</v>
       </c>
       <c r="C102" t="n">
-        <v>-27.15450236590873</v>
+        <v>25.6523476131071</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>-7.292722211064532</v>
+        <v>27.9453477334214</v>
       </c>
       <c r="B103" t="n">
-        <v>-20.29101278967462</v>
+        <v>20.96722998855868</v>
       </c>
       <c r="C103" t="n">
-        <v>3.597125017658819</v>
+        <v>-20.30176648851999</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>28.49545961366838</v>
+        <v>-16.94090376829223</v>
       </c>
       <c r="B104" t="n">
-        <v>-20.03718584036642</v>
+        <v>-30.37082679623713</v>
       </c>
       <c r="C104" t="n">
-        <v>64.57679364382132</v>
+        <v>28.4700976982335</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>-28.6917945598181</v>
+        <v>-15.80970047442828</v>
       </c>
       <c r="B105" t="n">
-        <v>13.47232186023054</v>
+        <v>20.1638909553417</v>
       </c>
       <c r="C105" t="n">
-        <v>50.38599060878492</v>
+        <v>21.65659800316121</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>37.61589479851887</v>
+        <v>15.25954424840956</v>
       </c>
       <c r="B106" t="n">
-        <v>-28.93112720369064</v>
+        <v>-13.5137596709586</v>
       </c>
       <c r="C106" t="n">
-        <v>35.44106576121754</v>
+        <v>-28.3396706299413</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>-28.73567891767639</v>
+        <v>27.4939781413273</v>
       </c>
       <c r="B107" t="n">
-        <v>-24.16360532621434</v>
+        <v>-19.56614333192228</v>
       </c>
       <c r="C107" t="n">
-        <v>19.39262490902215</v>
+        <v>-29.79051801131781</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>-11.80227208126319</v>
+        <v>-12.96968118993796</v>
       </c>
       <c r="B108" t="n">
-        <v>67.890612931606</v>
+        <v>-15.35143912580342</v>
       </c>
       <c r="C108" t="n">
-        <v>25.1190505700892</v>
+        <v>-31.56856674233582</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>-6.911184191422208</v>
+        <v>-10.47941446846649</v>
       </c>
       <c r="B109" t="n">
-        <v>40.46872653589576</v>
+        <v>-8.335534670232898</v>
       </c>
       <c r="C109" t="n">
-        <v>-15.80954213104264</v>
+        <v>-26.42619802167897</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>62.14363335623892</v>
+        <v>13.44692856194014</v>
       </c>
       <c r="B110" t="n">
-        <v>-38.2465224365627</v>
+        <v>-20.23842727390861</v>
       </c>
       <c r="C110" t="n">
-        <v>-9.220075282868102</v>
+        <v>47.41448131380966</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>36.4840467741672</v>
+        <v>30.77077865766113</v>
       </c>
       <c r="B111" t="n">
-        <v>-26.50168441536574</v>
+        <v>19.94369249415682</v>
       </c>
       <c r="C111" t="n">
-        <v>43.79923594519676</v>
+        <v>19.6472944953561</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>-17.7142813472696</v>
+        <v>33.94986630846153</v>
       </c>
       <c r="B112" t="n">
-        <v>-22.41482494398386</v>
+        <v>26.31602374508669</v>
       </c>
       <c r="C112" t="n">
-        <v>31.33755639001762</v>
+        <v>-21.18463682294824</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>-25.26335505213627</v>
+        <v>18.15902053537211</v>
       </c>
       <c r="B113" t="n">
-        <v>34.97604780352802</v>
+        <v>17.79178686499043</v>
       </c>
       <c r="C113" t="n">
-        <v>-10.83478323746912</v>
+        <v>22.12392926982837</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>57.46430307523163</v>
+        <v>-0.4176739737895677</v>
       </c>
       <c r="B114" t="n">
-        <v>29.89068047531991</v>
+        <v>-29.98186649362752</v>
       </c>
       <c r="C114" t="n">
-        <v>30.86101466519228</v>
+        <v>20.38605264199157</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>33.6807382232545</v>
+        <v>19.12598265005049</v>
       </c>
       <c r="B115" t="n">
-        <v>-5.00706096607796</v>
+        <v>-23.62957835544227</v>
       </c>
       <c r="C115" t="n">
-        <v>-22.01275991548007</v>
+        <v>-29.01408226827118</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>33.37820338680951</v>
+        <v>-19.83723477665142</v>
       </c>
       <c r="B116" t="n">
-        <v>-17.47751152947736</v>
+        <v>9.928642104057067</v>
       </c>
       <c r="C116" t="n">
-        <v>21.6500970719484</v>
+        <v>20.98869822793316</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>-7.136916847684639</v>
+        <v>18.69688248714041</v>
       </c>
       <c r="B117" t="n">
-        <v>13.25599233218975</v>
+        <v>21.18889717836517</v>
       </c>
       <c r="C117" t="n">
-        <v>-29.27487308633515</v>
+        <v>22.9463127305094</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>-28.8057313810626</v>
+        <v>28.79266652289072</v>
       </c>
       <c r="B118" t="n">
-        <v>45.11624690212215</v>
+        <v>-22.9462857099042</v>
       </c>
       <c r="C118" t="n">
-        <v>10.00124279395529</v>
+        <v>15.6549253477418</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>-26.19590389507469</v>
+        <v>33.77373819877985</v>
       </c>
       <c r="B119" t="n">
-        <v>-26.78085152661796</v>
+        <v>21.31124019159493</v>
       </c>
       <c r="C119" t="n">
-        <v>-30.25023285472402</v>
+        <v>-18.07461677713649</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>4.606014297942782</v>
+        <v>-16.40257454888696</v>
       </c>
       <c r="B120" t="n">
-        <v>50.75180434694033</v>
+        <v>9.891191664080125</v>
       </c>
       <c r="C120" t="n">
-        <v>-12.45570587380119</v>
+        <v>-23.80836630234738</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>-25.58652171099219</v>
+        <v>-15.71526816742186</v>
       </c>
       <c r="B121" t="n">
-        <v>-24.96268980704655</v>
+        <v>-23.59484307977539</v>
       </c>
       <c r="C121" t="n">
-        <v>40.35287676471648</v>
+        <v>17.30267766364182</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>-28.84470524225483</v>
+        <v>34.5336882709693</v>
       </c>
       <c r="B122" t="n">
-        <v>-17.84071015350552</v>
+        <v>-36.78615565050556</v>
       </c>
       <c r="C122" t="n">
-        <v>-5.396937109059785</v>
+        <v>-39.82251213671527</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>-25.03545209716219</v>
+        <v>-18.29223292026176</v>
       </c>
       <c r="B123" t="n">
-        <v>-14.45992016610715</v>
+        <v>-13.85567122165756</v>
       </c>
       <c r="C123" t="n">
-        <v>38.466348500104</v>
+        <v>17.53063264556503</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>36.88631696231945</v>
+        <v>21.57338163169659</v>
       </c>
       <c r="B124" t="n">
-        <v>18.28222476277826</v>
+        <v>22.77471249256588</v>
       </c>
       <c r="C124" t="n">
-        <v>6.1901466936584</v>
+        <v>-22.15748021450301</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>-26.21298427489244</v>
+        <v>-20.47211900548501</v>
       </c>
       <c r="B125" t="n">
-        <v>36.06225107637155</v>
+        <v>31.85824369172873</v>
       </c>
       <c r="C125" t="n">
-        <v>-25.20766873887857</v>
+        <v>-17.53308165852442</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>-34.34029611894275</v>
+        <v>-7.03727207533094</v>
       </c>
       <c r="B126" t="n">
-        <v>-28.58285911578686</v>
+        <v>11.51867329288892</v>
       </c>
       <c r="C126" t="n">
-        <v>26.01077340388978</v>
+        <v>22.00888695183974</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>42.53062947807484</v>
+        <v>25.80652348058928</v>
       </c>
       <c r="B127" t="n">
-        <v>35.13790952240684</v>
+        <v>-23.09565065291874</v>
       </c>
       <c r="C127" t="n">
-        <v>-38.89371152772696</v>
+        <v>-33.07291391015284</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>5.27735610801325</v>
+        <v>19.75432400941274</v>
       </c>
       <c r="B128" t="n">
-        <v>-19.1462394774249</v>
+        <v>29.5169415382228</v>
       </c>
       <c r="C128" t="n">
-        <v>11.64136252385257</v>
+        <v>30.35541945051815</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>-25.46751862323144</v>
+        <v>30.50919864910898</v>
       </c>
       <c r="B129" t="n">
-        <v>-24.6052410064203</v>
+        <v>21.52397831637747</v>
       </c>
       <c r="C129" t="n">
-        <v>-9.712817033689456</v>
+        <v>-19.78039227261428</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>-19.70321462053252</v>
+        <v>37.29935167316494</v>
       </c>
       <c r="B130" t="n">
-        <v>-26.6136317367995</v>
+        <v>-43.1666652327664</v>
       </c>
       <c r="C130" t="n">
-        <v>-30.14839714249766</v>
+        <v>12.50615444382143</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>-19.22395351550121</v>
+        <v>-28.70666313803623</v>
       </c>
       <c r="B131" t="n">
-        <v>44.80942538054692</v>
+        <v>30.60273865066146</v>
       </c>
       <c r="C131" t="n">
-        <v>-14.2131302334597</v>
+        <v>28.93202367926155</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>-20.25139791856673</v>
+        <v>-24.69984981018714</v>
       </c>
       <c r="B132" t="n">
-        <v>-30.43274639779101</v>
+        <v>-30.56161806855621</v>
       </c>
       <c r="C132" t="n">
-        <v>-20.94753601240372</v>
+        <v>31.61888750770393</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>36.14603981761208</v>
+        <v>-22.13110733249707</v>
       </c>
       <c r="B133" t="n">
-        <v>-12.79108615942967</v>
+        <v>-26.36645882640038</v>
       </c>
       <c r="C133" t="n">
-        <v>-38.90962324874923</v>
+        <v>31.46562891663428</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>-27.87511075424555</v>
+        <v>26.18243073175256</v>
       </c>
       <c r="B134" t="n">
-        <v>-25.87156259061987</v>
+        <v>24.6963506724874</v>
       </c>
       <c r="C134" t="n">
-        <v>-21.49147762427934</v>
+        <v>-33.45032259272548</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>-34.4655610274346</v>
+        <v>-35.48197075588934</v>
       </c>
       <c r="B135" t="n">
-        <v>3.756980069162581</v>
+        <v>-21.6131231755446</v>
       </c>
       <c r="C135" t="n">
-        <v>-29.48883787356228</v>
+        <v>-22.51535346390986</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>27.34356037593992</v>
+        <v>-42.87063023826488</v>
       </c>
       <c r="B136" t="n">
-        <v>-5.652820182248714</v>
+        <v>-36.09884479817141</v>
       </c>
       <c r="C136" t="n">
-        <v>2.547048224366048</v>
+        <v>-33.78242575910537</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>-45.94267912541395</v>
+        <v>39.33424888376625</v>
       </c>
       <c r="B137" t="n">
-        <v>-28.4884235938837</v>
+        <v>10.32080663966555</v>
       </c>
       <c r="C137" t="n">
-        <v>21.50618772406064</v>
+        <v>16.15118599858719</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>22.96643955335293</v>
+        <v>32.6585076282567</v>
       </c>
       <c r="B138" t="n">
-        <v>-21.90789128248052</v>
+        <v>-34.04717717464177</v>
       </c>
       <c r="C138" t="n">
-        <v>-0.05185623210898233</v>
+        <v>-19.71156256085369</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>60.70673547136337</v>
+        <v>-37.55686880594481</v>
       </c>
       <c r="B139" t="n">
-        <v>45.86002285307649</v>
+        <v>11.47659031472759</v>
       </c>
       <c r="C139" t="n">
-        <v>-9.305746607783311</v>
+        <v>-31.00017616620402</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>-24.74193689190274</v>
+        <v>16.8304047257085</v>
       </c>
       <c r="B140" t="n">
-        <v>31.35435536893964</v>
+        <v>-21.55517271065006</v>
       </c>
       <c r="C140" t="n">
-        <v>-20.47332211670617</v>
+        <v>41.63285924292587</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>7.242059871609316</v>
+        <v>15.40816506889789</v>
       </c>
       <c r="B141" t="n">
-        <v>-18.1826008600391</v>
+        <v>28.50808653014969</v>
       </c>
       <c r="C141" t="n">
-        <v>-33.25841431676135</v>
+        <v>-26.94655515784562</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="n">
-        <v>36.19075285643382</v>
+        <v>6.678624337718236</v>
       </c>
       <c r="B142" t="n">
-        <v>-23.74088590399719</v>
+        <v>-13.25193945870153</v>
       </c>
       <c r="C142" t="n">
-        <v>-19.26288096800934</v>
+        <v>18.70878923495516</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="n">
-        <v>30.99837968438213</v>
+        <v>-24.47588216328255</v>
       </c>
       <c r="B143" t="n">
-        <v>56.4301016599395</v>
+        <v>35.67708119423628</v>
       </c>
       <c r="C143" t="n">
-        <v>19.54391817041194</v>
+        <v>25.44127590530838</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="n">
-        <v>-17.91998220861786</v>
+        <v>-19.81113180957316</v>
       </c>
       <c r="B144" t="n">
-        <v>-28.20401925296714</v>
+        <v>23.87167465565708</v>
       </c>
       <c r="C144" t="n">
-        <v>-27.40515060253533</v>
+        <v>-24.2031444471584</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="n">
-        <v>52.63717027151863</v>
+        <v>-40.61359712269391</v>
       </c>
       <c r="B145" t="n">
-        <v>4.84718550416547</v>
+        <v>-24.53721210910269</v>
       </c>
       <c r="C145" t="n">
-        <v>-26.59950915727985</v>
+        <v>27.00793832404553</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="n">
-        <v>-29.28428716840904</v>
+        <v>-20.07675649091646</v>
       </c>
       <c r="B146" t="n">
-        <v>35.16550222655721</v>
+        <v>13.92963338884507</v>
       </c>
       <c r="C146" t="n">
-        <v>-35.27682210185245</v>
+        <v>-28.58998101654683</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="n">
-        <v>-27.18136177089634</v>
+        <v>30.94698572405889</v>
       </c>
       <c r="B147" t="n">
-        <v>79.41616120067424</v>
+        <v>-22.46064992333618</v>
       </c>
       <c r="C147" t="n">
-        <v>49.68464127318871</v>
+        <v>-21.50637566020857</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="n">
-        <v>10.86160904291239</v>
+        <v>-17.96481976146514</v>
       </c>
       <c r="B148" t="n">
-        <v>-13.78420349985222</v>
+        <v>19.6602359489981</v>
       </c>
       <c r="C148" t="n">
-        <v>-23.87590822244479</v>
+        <v>-28.71380363354583</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="n">
-        <v>35.9004184346271</v>
+        <v>-23.12494743191079</v>
       </c>
       <c r="B149" t="n">
-        <v>-26.19399187542411</v>
+        <v>22.73215001013179</v>
       </c>
       <c r="C149" t="n">
-        <v>32.0584520819221</v>
+        <v>9.357318863856145</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="n">
-        <v>45.2232754863683</v>
+        <v>-5.313000437703849</v>
       </c>
       <c r="B150" t="n">
-        <v>-26.90126693467505</v>
+        <v>-8.016301729082882</v>
       </c>
       <c r="C150" t="n">
-        <v>18.57217289481439</v>
+        <v>20.27915114883028</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="n">
-        <v>-22.7598737207583</v>
+        <v>27.64396791977079</v>
       </c>
       <c r="B151" t="n">
-        <v>-10.57657001244975</v>
+        <v>20.05850391255084</v>
       </c>
       <c r="C151" t="n">
-        <v>36.83526222087487</v>
+        <v>-26.95274556472734</v>
       </c>
     </row>
   </sheetData>
@@ -2139,1107 +2139,1107 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>-26.5069296293794</v>
+        <v>-24.19697691506952</v>
       </c>
       <c r="B2" t="n">
-        <v>-15.74589296019964</v>
+        <v>-27.89811799878125</v>
       </c>
       <c r="C2" t="n">
-        <v>58.4336953515926</v>
+        <v>-23.47973688545869</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>28.36713262192892</v>
+        <v>-16.00680932195373</v>
       </c>
       <c r="B3" t="n">
-        <v>24.39106306797972</v>
+        <v>17.7403515643706</v>
       </c>
       <c r="C3" t="n">
-        <v>25.51106595928582</v>
+        <v>-25.62106670955855</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>-14.57999492271247</v>
+        <v>32.58536299036967</v>
       </c>
       <c r="B4" t="n">
-        <v>-3.291626097973808</v>
+        <v>-30.76638167996603</v>
       </c>
       <c r="C4" t="n">
-        <v>42.71175623675575</v>
+        <v>14.22824156268456</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>-31.55648542869678</v>
+        <v>-31.17568035231925</v>
       </c>
       <c r="B5" t="n">
-        <v>-20.90338464268468</v>
+        <v>7.602473714334353</v>
       </c>
       <c r="C5" t="n">
-        <v>-23.7429768971833</v>
+        <v>-17.14444658329014</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>67.35197686602145</v>
+        <v>20.25247578813491</v>
       </c>
       <c r="B6" t="n">
-        <v>-16.35115453710076</v>
+        <v>-23.05653436442151</v>
       </c>
       <c r="C6" t="n">
-        <v>22.03779519668357</v>
+        <v>20.23221306312618</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>15.13643265045212</v>
+        <v>-11.56376450557201</v>
       </c>
       <c r="B7" t="n">
-        <v>-10.10084108961678</v>
+        <v>19.27691374425588</v>
       </c>
       <c r="C7" t="n">
-        <v>-30.22464293138509</v>
+        <v>15.60694764881533</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>-5.109450716399847</v>
+        <v>23.03521572375293</v>
       </c>
       <c r="B8" t="n">
-        <v>-23.00650459793234</v>
+        <v>-37.13664672486095</v>
       </c>
       <c r="C8" t="n">
-        <v>-38.30036251712234</v>
+        <v>36.06470593785537</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>-7.303216636642675</v>
+        <v>-10.08864959387184</v>
       </c>
       <c r="B9" t="n">
-        <v>-24.75167274575217</v>
+        <v>-20.03489981570823</v>
       </c>
       <c r="C9" t="n">
-        <v>54.80468664939993</v>
+        <v>-8.922721572531541</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>11.52929124880881</v>
+        <v>23.38910097525127</v>
       </c>
       <c r="B10" t="n">
-        <v>-27.42683399329788</v>
+        <v>-23.53102267376136</v>
       </c>
       <c r="C10" t="n">
-        <v>-31.35583013550552</v>
+        <v>23.40265171332876</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>-19.62071479138045</v>
+        <v>17.2406601173826</v>
       </c>
       <c r="B11" t="n">
-        <v>10.01331554240254</v>
+        <v>25.44829198435447</v>
       </c>
       <c r="C11" t="n">
-        <v>-25.71510479705623</v>
+        <v>-38.84592286631347</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>-23.77361001520379</v>
+        <v>-21.73230417416212</v>
       </c>
       <c r="B12" t="n">
-        <v>-26.13083537019299</v>
+        <v>31.01212045353375</v>
       </c>
       <c r="C12" t="n">
-        <v>-22.99514587314124</v>
+        <v>-32.83950814153935</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>-2.752375250996437</v>
+        <v>20.24981143576592</v>
       </c>
       <c r="B13" t="n">
-        <v>-0.01727104331861966</v>
+        <v>17.86176648240941</v>
       </c>
       <c r="C13" t="n">
-        <v>-24.3373151548098</v>
+        <v>-9.359784621264655</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>7.109649190580469</v>
+        <v>1.930864061094455</v>
       </c>
       <c r="B14" t="n">
-        <v>-17.87564113749415</v>
+        <v>-27.93142491818633</v>
       </c>
       <c r="C14" t="n">
-        <v>33.41613993718718</v>
+        <v>35.23145489202603</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>-37.96312579470209</v>
+        <v>29.10185840721665</v>
       </c>
       <c r="B15" t="n">
-        <v>6.596500824058213</v>
+        <v>28.02914135066483</v>
       </c>
       <c r="C15" t="n">
-        <v>-37.37415779021998</v>
+        <v>26.49508271175944</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>55.61328099998035</v>
+        <v>-12.50382452509682</v>
       </c>
       <c r="B16" t="n">
-        <v>-30.71418279640495</v>
+        <v>29.23523970924397</v>
       </c>
       <c r="C16" t="n">
-        <v>47.72754833429286</v>
+        <v>-29.62511491331291</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>27.38564151147779</v>
+        <v>-22.2347546519724</v>
       </c>
       <c r="B17" t="n">
-        <v>-26.2356155491709</v>
+        <v>-20.08073013477292</v>
       </c>
       <c r="C17" t="n">
-        <v>-29.01450172471655</v>
+        <v>32.37458025458922</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>71.80769659743316</v>
+        <v>32.94515462866202</v>
       </c>
       <c r="B18" t="n">
-        <v>-18.16898663396898</v>
+        <v>25.34582063098612</v>
       </c>
       <c r="C18" t="n">
-        <v>-28.99200074106981</v>
+        <v>-41.18332978289727</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>-17.61950052463876</v>
+        <v>-21.91386626220338</v>
       </c>
       <c r="B19" t="n">
-        <v>17.38588636341371</v>
+        <v>-27.56019332077942</v>
       </c>
       <c r="C19" t="n">
-        <v>-31.59128538451471</v>
+        <v>27.49787393142158</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>-38.46262113500914</v>
+        <v>18.47060053075246</v>
       </c>
       <c r="B20" t="n">
-        <v>59.46108656217314</v>
+        <v>24.3907933322795</v>
       </c>
       <c r="C20" t="n">
-        <v>-26.1509798979464</v>
+        <v>28.74796554169957</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>-28.43848071070762</v>
+        <v>-20.28657169622087</v>
       </c>
       <c r="B21" t="n">
-        <v>-25.78079494935603</v>
+        <v>-25.47043331842759</v>
       </c>
       <c r="C21" t="n">
-        <v>-30.39620105798967</v>
+        <v>-23.02556133893771</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>32.63405484753444</v>
+        <v>-21.44678509773353</v>
       </c>
       <c r="B22" t="n">
-        <v>17.30917712637069</v>
+        <v>-21.10886663994233</v>
       </c>
       <c r="C22" t="n">
-        <v>-6.543272363367524</v>
+        <v>-23.18259054023869</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>-26.40218981143551</v>
+        <v>18.59519098609107</v>
       </c>
       <c r="B23" t="n">
-        <v>-22.41120183380536</v>
+        <v>-36.76890881392536</v>
       </c>
       <c r="C23" t="n">
-        <v>-14.55790531699618</v>
+        <v>-26.05694620874969</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>81.88989924904942</v>
+        <v>-25.99977393577341</v>
       </c>
       <c r="B24" t="n">
-        <v>-44.734053508504</v>
+        <v>-14.21373162763017</v>
       </c>
       <c r="C24" t="n">
-        <v>-16.76902603195226</v>
+        <v>26.43830962850636</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>-37.91411263789637</v>
+        <v>-34.76601342205771</v>
       </c>
       <c r="B25" t="n">
-        <v>-39.08713584880702</v>
+        <v>-36.14271885873185</v>
       </c>
       <c r="C25" t="n">
-        <v>-7.09358682871077</v>
+        <v>23.43182087905327</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>-26.17364920175337</v>
+        <v>33.63264657864075</v>
       </c>
       <c r="B26" t="n">
-        <v>-39.12991685124612</v>
+        <v>27.74283163393399</v>
       </c>
       <c r="C26" t="n">
-        <v>-13.05044232726135</v>
+        <v>-28.71494602591892</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>-32.68069799311004</v>
+        <v>19.58847683645716</v>
       </c>
       <c r="B27" t="n">
-        <v>24.65866166302617</v>
+        <v>25.01110612460439</v>
       </c>
       <c r="C27" t="n">
-        <v>21.32485136223542</v>
+        <v>-20.17577706818904</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>28.6075437760799</v>
+        <v>-25.56840319634261</v>
       </c>
       <c r="B28" t="n">
-        <v>0.04201820000761076</v>
+        <v>23.68899870841311</v>
       </c>
       <c r="C28" t="n">
-        <v>-31.87449632339704</v>
+        <v>-35.65609601255194</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>-36.28680972289002</v>
+        <v>15.9731442683329</v>
       </c>
       <c r="B29" t="n">
-        <v>68.76105877700502</v>
+        <v>-38.28309184242699</v>
       </c>
       <c r="C29" t="n">
-        <v>-29.65849720035356</v>
+        <v>-28.81011506184438</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>-3.005174775386806</v>
+        <v>20.85861684483879</v>
       </c>
       <c r="B30" t="n">
-        <v>-23.25173677738424</v>
+        <v>-26.94277011744319</v>
       </c>
       <c r="C30" t="n">
-        <v>-24.83619557295946</v>
+        <v>21.76965233316452</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>-14.60347240164654</v>
+        <v>35.91898783456619</v>
       </c>
       <c r="B31" t="n">
-        <v>-20.89774973575088</v>
+        <v>23.23290302956151</v>
       </c>
       <c r="C31" t="n">
-        <v>-0.4360747008862449</v>
+        <v>27.19222669878246</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>-26.68163361827375</v>
+        <v>19.30527149368568</v>
       </c>
       <c r="B32" t="n">
-        <v>-27.99295434158917</v>
+        <v>-28.24019646386362</v>
       </c>
       <c r="C32" t="n">
-        <v>-17.67723025863794</v>
+        <v>-37.24237309614038</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>48.45964618682162</v>
+        <v>-24.12775018654794</v>
       </c>
       <c r="B33" t="n">
-        <v>-14.91149986365962</v>
+        <v>24.67113301399205</v>
       </c>
       <c r="C33" t="n">
-        <v>-27.05349168495648</v>
+        <v>23.96100765883567</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>15.65335508344205</v>
+        <v>23.42726698053697</v>
       </c>
       <c r="B34" t="n">
-        <v>3.540948174263548</v>
+        <v>-15.60939251181003</v>
       </c>
       <c r="C34" t="n">
-        <v>18.85148126085886</v>
+        <v>30.68064082072874</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>23.53118830534143</v>
+        <v>17.94737816388044</v>
       </c>
       <c r="B35" t="n">
-        <v>-31.70995129371372</v>
+        <v>-23.87032462219443</v>
       </c>
       <c r="C35" t="n">
-        <v>26.77730460615167</v>
+        <v>-39.39109618924934</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>-9.227867388761965</v>
+        <v>24.87345096667913</v>
       </c>
       <c r="B36" t="n">
-        <v>30.77018035010088</v>
+        <v>25.81872478725508</v>
       </c>
       <c r="C36" t="n">
-        <v>-31.3318029105247</v>
+        <v>-29.36484284837899</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>9.92361365975632</v>
+        <v>14.63405900551245</v>
       </c>
       <c r="B37" t="n">
-        <v>19.68970021151643</v>
+        <v>32.87915258041738</v>
       </c>
       <c r="C37" t="n">
-        <v>29.47089238946206</v>
+        <v>23.78004657883046</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>-24.66976991250641</v>
+        <v>-27.58739566061807</v>
       </c>
       <c r="B38" t="n">
-        <v>-21.65262466386178</v>
+        <v>35.19942052137687</v>
       </c>
       <c r="C38" t="n">
-        <v>-30.21449799849396</v>
+        <v>23.50130965447207</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>-17.5103367541752</v>
+        <v>-35.8281067370548</v>
       </c>
       <c r="B39" t="n">
-        <v>11.02939700962806</v>
+        <v>-30.50812348019965</v>
       </c>
       <c r="C39" t="n">
-        <v>16.82117226539835</v>
+        <v>17.77132255204433</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>59.34202209534902</v>
+        <v>3.801130863161597</v>
       </c>
       <c r="B40" t="n">
-        <v>-30.65506590497494</v>
+        <v>-27.44805635106802</v>
       </c>
       <c r="C40" t="n">
-        <v>-30.51786258956398</v>
+        <v>-38.50488714879743</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>63.8763108519052</v>
+        <v>35.28584160037442</v>
       </c>
       <c r="B41" t="n">
-        <v>4.666340567800544</v>
+        <v>-15.77389091995563</v>
       </c>
       <c r="C41" t="n">
-        <v>53.57541736836299</v>
+        <v>30.77868749623427</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>-26.0403448211532</v>
+        <v>-33.1356561296428</v>
       </c>
       <c r="B42" t="n">
-        <v>-23.5700005565336</v>
+        <v>15.17891195357986</v>
       </c>
       <c r="C42" t="n">
-        <v>11.85095325387381</v>
+        <v>36.94674684501372</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>42.99253961879162</v>
+        <v>21.44653691928788</v>
       </c>
       <c r="B43" t="n">
-        <v>7.2977842512983</v>
+        <v>31.0725139822225</v>
       </c>
       <c r="C43" t="n">
-        <v>-17.85830980751009</v>
+        <v>-14.46644431478702</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>-26.48519960248504</v>
+        <v>-24.53081242596924</v>
       </c>
       <c r="B44" t="n">
-        <v>-36.68453990332721</v>
+        <v>-27.91477330961165</v>
       </c>
       <c r="C44" t="n">
-        <v>-21.79056340792611</v>
+        <v>-22.17027787533121</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>11.62823009889445</v>
+        <v>8.695832633130724</v>
       </c>
       <c r="B45" t="n">
-        <v>-27.41533089228093</v>
+        <v>25.22448474056137</v>
       </c>
       <c r="C45" t="n">
-        <v>15.33302940120265</v>
+        <v>-19.92827160194476</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>31.45333448410832</v>
+        <v>16.96745116693026</v>
       </c>
       <c r="B46" t="n">
-        <v>-26.90940848402801</v>
+        <v>20.58940681484478</v>
       </c>
       <c r="C46" t="n">
-        <v>36.67183449456946</v>
+        <v>-21.56478191542422</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>31.09359252177399</v>
+        <v>30.3799281245169</v>
       </c>
       <c r="B47" t="n">
-        <v>-20.72427230931497</v>
+        <v>-36.25744148700049</v>
       </c>
       <c r="C47" t="n">
-        <v>54.94263998835039</v>
+        <v>16.55987040068519</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>18.61138515236699</v>
+        <v>-30.04589270668292</v>
       </c>
       <c r="B48" t="n">
-        <v>-25.5035346435204</v>
+        <v>-19.15606244738088</v>
       </c>
       <c r="C48" t="n">
-        <v>-32.64362365276848</v>
+        <v>14.02446618811693</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>-13.07757780661689</v>
+        <v>24.07613777711505</v>
       </c>
       <c r="B49" t="n">
-        <v>-34.80382055566445</v>
+        <v>-26.51418691420255</v>
       </c>
       <c r="C49" t="n">
-        <v>16.39984217823289</v>
+        <v>20.4629915026796</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>-19.46914396988039</v>
+        <v>-17.10945376473271</v>
       </c>
       <c r="B50" t="n">
-        <v>-24.59301801342743</v>
+        <v>-29.1875047564223</v>
       </c>
       <c r="C50" t="n">
-        <v>-27.0045085247965</v>
+        <v>10.39401253727804</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>-16.17558864884606</v>
+        <v>24.542581967911</v>
       </c>
       <c r="B51" t="n">
-        <v>-22.16596159988757</v>
+        <v>37.3169188959705</v>
       </c>
       <c r="C51" t="n">
-        <v>-28.51549482701559</v>
+        <v>-9.292927564426273</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>-23.8457546488909</v>
+        <v>15.29727701918922</v>
       </c>
       <c r="B52" t="n">
-        <v>70.08619268577391</v>
+        <v>-16.38803836292771</v>
       </c>
       <c r="C52" t="n">
-        <v>36.52944598911884</v>
+        <v>-25.79103982513858</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>-26.93181482620029</v>
+        <v>16.00365370205081</v>
       </c>
       <c r="B53" t="n">
-        <v>-21.26679797594279</v>
+        <v>-23.91829432865008</v>
       </c>
       <c r="C53" t="n">
-        <v>-38.14154460136436</v>
+        <v>33.95494285138567</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>-23.7373409615084</v>
+        <v>22.73478405212062</v>
       </c>
       <c r="B54" t="n">
-        <v>-7.540422365756404</v>
+        <v>32.99562441282212</v>
       </c>
       <c r="C54" t="n">
-        <v>36.92800734565187</v>
+        <v>21.58179835809687</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>12.98145633668762</v>
+        <v>-35.78863826063491</v>
       </c>
       <c r="B55" t="n">
-        <v>-38.26102020134467</v>
+        <v>-42.06658061630332</v>
       </c>
       <c r="C55" t="n">
-        <v>-32.54028126018584</v>
+        <v>-12.97644506606447</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>-14.88634728826896</v>
+        <v>-18.99036051069742</v>
       </c>
       <c r="B56" t="n">
-        <v>-34.35953322567909</v>
+        <v>32.5955669022697</v>
       </c>
       <c r="C56" t="n">
-        <v>3.349553861979591</v>
+        <v>20.27440882275726</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>65.8736020636148</v>
+        <v>41.88793482209755</v>
       </c>
       <c r="B57" t="n">
-        <v>6.077055729502051</v>
+        <v>-30.98788636708587</v>
       </c>
       <c r="C57" t="n">
-        <v>-29.9312171664037</v>
+        <v>-23.75526370913476</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>-11.69888682501661</v>
+        <v>-32.97554034417347</v>
       </c>
       <c r="B58" t="n">
-        <v>20.72788299685013</v>
+        <v>-37.58141132469152</v>
       </c>
       <c r="C58" t="n">
-        <v>47.99261041972711</v>
+        <v>34.85559706178937</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>15.86580945657081</v>
+        <v>10.44346199787818</v>
       </c>
       <c r="B59" t="n">
-        <v>53.41732054750273</v>
+        <v>-34.7058213603102</v>
       </c>
       <c r="C59" t="n">
-        <v>-26.35109374386298</v>
+        <v>27.23277789581903</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>7.690599363653969</v>
+        <v>28.30427628500708</v>
       </c>
       <c r="B60" t="n">
-        <v>7.413723873980317</v>
+        <v>-23.51681606095693</v>
       </c>
       <c r="C60" t="n">
-        <v>11.28286780435735</v>
+        <v>-18.61408114990657</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>-28.13998931581458</v>
+        <v>-12.236986056473</v>
       </c>
       <c r="B61" t="n">
-        <v>-31.39414901942778</v>
+        <v>-27.10603056148683</v>
       </c>
       <c r="C61" t="n">
-        <v>37.94718199200275</v>
+        <v>-27.32419186558492</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>14.12510460397086</v>
+        <v>-25.5962992390991</v>
       </c>
       <c r="B62" t="n">
-        <v>-21.00750389933867</v>
+        <v>18.9845114487451</v>
       </c>
       <c r="C62" t="n">
-        <v>14.63536718564133</v>
+        <v>-20.19205050215695</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>10.10497455776232</v>
+        <v>20.30350288817295</v>
       </c>
       <c r="B63" t="n">
-        <v>-24.51829943400736</v>
+        <v>-5.457063369422047</v>
       </c>
       <c r="C63" t="n">
-        <v>53.82202477653618</v>
+        <v>-21.94252574397098</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>-14.13207409882659</v>
+        <v>38.48368972244973</v>
       </c>
       <c r="B64" t="n">
-        <v>-29.0018476249979</v>
+        <v>-18.77033972355538</v>
       </c>
       <c r="C64" t="n">
-        <v>-29.4007360638951</v>
+        <v>-22.27764123259119</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>-29.43877632944995</v>
+        <v>25.70054090279369</v>
       </c>
       <c r="B65" t="n">
-        <v>-22.25700937120789</v>
+        <v>23.13814351930756</v>
       </c>
       <c r="C65" t="n">
-        <v>30.46148874816588</v>
+        <v>22.2440875504072</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>-17.45568749409982</v>
+        <v>-16.6576803581253</v>
       </c>
       <c r="B66" t="n">
-        <v>-16.31778050015527</v>
+        <v>23.00652599250009</v>
       </c>
       <c r="C66" t="n">
-        <v>-23.35359936892005</v>
+        <v>-23.64219798107135</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>19.94285922079245</v>
+        <v>-27.42220639988322</v>
       </c>
       <c r="B67" t="n">
-        <v>-27.03355335783868</v>
+        <v>-20.16939584901551</v>
       </c>
       <c r="C67" t="n">
-        <v>-35.11159012196831</v>
+        <v>-15.81618516006534</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>-21.87582960759346</v>
+        <v>-34.23965026030777</v>
       </c>
       <c r="B68" t="n">
-        <v>-9.99752633408737</v>
+        <v>18.24556784463267</v>
       </c>
       <c r="C68" t="n">
-        <v>37.9023718046305</v>
+        <v>-10.67812256703478</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>19.96996511347193</v>
+        <v>-36.84307549431295</v>
       </c>
       <c r="B69" t="n">
-        <v>-20.61060340519741</v>
+        <v>8.08944238007955</v>
       </c>
       <c r="C69" t="n">
-        <v>60.79000647099301</v>
+        <v>22.10789960784331</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>-25.34666433635917</v>
+        <v>-21.75646539672914</v>
       </c>
       <c r="B70" t="n">
-        <v>-32.76644398132261</v>
+        <v>41.02417121860134</v>
       </c>
       <c r="C70" t="n">
-        <v>-11.79520215326357</v>
+        <v>32.01316925045791</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>-25.4421913409207</v>
+        <v>-17.41900634064422</v>
       </c>
       <c r="B71" t="n">
-        <v>33.51651414966407</v>
+        <v>-34.87396702987813</v>
       </c>
       <c r="C71" t="n">
-        <v>-3.991820657606821</v>
+        <v>17.43300032347857</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>-18.51539621290474</v>
+        <v>18.57292491629727</v>
       </c>
       <c r="B72" t="n">
-        <v>12.15711331549956</v>
+        <v>18.69456187293</v>
       </c>
       <c r="C72" t="n">
-        <v>-9.804648191572303</v>
+        <v>-21.73232028415357</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>-20.09623988662885</v>
+        <v>25.94433754627931</v>
       </c>
       <c r="B73" t="n">
-        <v>61.9132654841443</v>
+        <v>37.21698658836089</v>
       </c>
       <c r="C73" t="n">
-        <v>-4.670296447592055</v>
+        <v>-34.4636372694242</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>11.68526882051875</v>
+        <v>24.89400915725238</v>
       </c>
       <c r="B74" t="n">
-        <v>-7.550250768086309</v>
+        <v>-27.50999277903768</v>
       </c>
       <c r="C74" t="n">
-        <v>33.51863018936279</v>
+        <v>23.64478285933338</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>1.27663548318059</v>
+        <v>-26.99577505801894</v>
       </c>
       <c r="B75" t="n">
-        <v>-11.16716312273217</v>
+        <v>-14.58339748194704</v>
       </c>
       <c r="C75" t="n">
-        <v>54.99527218677657</v>
+        <v>15.95192610852642</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>6.111896349121404</v>
+        <v>6.783065395235768</v>
       </c>
       <c r="B76" t="n">
-        <v>-13.09701953484543</v>
+        <v>-26.19480262276477</v>
       </c>
       <c r="C76" t="n">
-        <v>25.72257114176291</v>
+        <v>-28.9593646780027</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>31.41597164892236</v>
+        <v>27.31112841998659</v>
       </c>
       <c r="B77" t="n">
-        <v>62.00600516602961</v>
+        <v>-31.75478015058024</v>
       </c>
       <c r="C77" t="n">
-        <v>45.23413853542799</v>
+        <v>-30.57757959413425</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>42.11822271854863</v>
+        <v>-35.73738658606501</v>
       </c>
       <c r="B78" t="n">
-        <v>-22.41959235224041</v>
+        <v>-18.43687241727155</v>
       </c>
       <c r="C78" t="n">
-        <v>-20.69096049222018</v>
+        <v>-38.43923195099915</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>-19.21536956478339</v>
+        <v>22.25568240744151</v>
       </c>
       <c r="B79" t="n">
-        <v>44.14767132065986</v>
+        <v>32.77885690201443</v>
       </c>
       <c r="C79" t="n">
-        <v>39.99696565605446</v>
+        <v>21.02521351878234</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>3.722422782745927</v>
+        <v>-31.51075690487024</v>
       </c>
       <c r="B80" t="n">
-        <v>-26.74983080458345</v>
+        <v>12.50998391392428</v>
       </c>
       <c r="C80" t="n">
-        <v>-15.33909958653915</v>
+        <v>-11.40092308399794</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>-18.15927687294639</v>
+        <v>29.89218203151384</v>
       </c>
       <c r="B81" t="n">
-        <v>14.80030202753061</v>
+        <v>-10.48360838135902</v>
       </c>
       <c r="C81" t="n">
-        <v>20.01372983822736</v>
+        <v>-24.17864551111801</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>-24.55678510819301</v>
+        <v>-33.67710314754252</v>
       </c>
       <c r="B82" t="n">
-        <v>17.25708818911144</v>
+        <v>23.79651217236376</v>
       </c>
       <c r="C82" t="n">
-        <v>52.64153690696943</v>
+        <v>-29.00633938218722</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>-25.96204124032735</v>
+        <v>6.154098023756843</v>
       </c>
       <c r="B83" t="n">
-        <v>-18.20264519286999</v>
+        <v>-33.82121825976387</v>
       </c>
       <c r="C83" t="n">
-        <v>-18.00512954938942</v>
+        <v>-11.22729347756268</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>-14.09979919120728</v>
+        <v>22.18329021052934</v>
       </c>
       <c r="B84" t="n">
-        <v>-24.92064442205324</v>
+        <v>24.46089291768468</v>
       </c>
       <c r="C84" t="n">
-        <v>38.08792599270315</v>
+        <v>-33.2101144664213</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>12.91836703852185</v>
+        <v>16.45008510294748</v>
       </c>
       <c r="B85" t="n">
-        <v>29.24240131123093</v>
+        <v>-24.90290330738228</v>
       </c>
       <c r="C85" t="n">
-        <v>-36.12634791816831</v>
+        <v>-32.33408576705805</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>-13.82848474902471</v>
+        <v>33.29729877983826</v>
       </c>
       <c r="B86" t="n">
-        <v>-4.644070013536759</v>
+        <v>21.78585869331418</v>
       </c>
       <c r="C86" t="n">
-        <v>-28.8131219318597</v>
+        <v>-35.80068128264102</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>-26.1018354245087</v>
+        <v>16.18112076642335</v>
       </c>
       <c r="B87" t="n">
-        <v>-24.56733299398769</v>
+        <v>-11.30384708751456</v>
       </c>
       <c r="C87" t="n">
-        <v>-36.03937876672483</v>
+        <v>-4.536212524096226</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>6.691132944745751</v>
+        <v>31.69990083174075</v>
       </c>
       <c r="B88" t="n">
-        <v>27.64418094487827</v>
+        <v>30.48604811850374</v>
       </c>
       <c r="C88" t="n">
-        <v>27.88552553615843</v>
+        <v>-8.549680964489818</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>-21.73233487006669</v>
+        <v>38.66807081771738</v>
       </c>
       <c r="B89" t="n">
-        <v>-28.07573457542325</v>
+        <v>27.76885665108915</v>
       </c>
       <c r="C89" t="n">
-        <v>-23.30566738466539</v>
+        <v>-2.100739870574225</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>-35.53324180643343</v>
+        <v>24.32174610308081</v>
       </c>
       <c r="B90" t="n">
-        <v>-21.42390228630972</v>
+        <v>36.38425732350171</v>
       </c>
       <c r="C90" t="n">
-        <v>24.9181926487894</v>
+        <v>-16.24666958614618</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>-17.3965435457132</v>
+        <v>-34.06838561621852</v>
       </c>
       <c r="B91" t="n">
-        <v>-24.78881034936873</v>
+        <v>17.88633255664942</v>
       </c>
       <c r="C91" t="n">
-        <v>-23.3179218483767</v>
+        <v>26.25223555924085</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>-23.98781969376053</v>
+        <v>25.36559173985843</v>
       </c>
       <c r="B92" t="n">
-        <v>53.33890758300789</v>
+        <v>19.03738904304899</v>
       </c>
       <c r="C92" t="n">
-        <v>-19.00789499951421</v>
+        <v>-27.52906923667723</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>-26.15874759357656</v>
+        <v>-28.70344657678294</v>
       </c>
       <c r="B93" t="n">
-        <v>70.52836660422052</v>
+        <v>33.83786349449748</v>
       </c>
       <c r="C93" t="n">
-        <v>-31.71852135424393</v>
+        <v>-26.36401776594693</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>-24.45441381443282</v>
+        <v>24.94159325546093</v>
       </c>
       <c r="B94" t="n">
-        <v>-22.07558980387683</v>
+        <v>28.08315648594102</v>
       </c>
       <c r="C94" t="n">
-        <v>50.95801673582443</v>
+        <v>38.41353872007722</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>42.25211282482826</v>
+        <v>33.77892486912992</v>
       </c>
       <c r="B95" t="n">
-        <v>53.0059665430344</v>
+        <v>-25.72296010419939</v>
       </c>
       <c r="C95" t="n">
-        <v>45.86436940494617</v>
+        <v>-19.77430088584666</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>-6.613042254474124</v>
+        <v>-30.96158544973871</v>
       </c>
       <c r="B96" t="n">
-        <v>56.93348829996907</v>
+        <v>20.30988513638233</v>
       </c>
       <c r="C96" t="n">
-        <v>-31.73822467539291</v>
+        <v>23.62347242016668</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>59.1538775318758</v>
+        <v>-22.96981077489182</v>
       </c>
       <c r="B97" t="n">
-        <v>-18.45267582463276</v>
+        <v>38.17573975963379</v>
       </c>
       <c r="C97" t="n">
-        <v>-22.04518379173004</v>
+        <v>28.60280743995303</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>31.42148484611746</v>
+        <v>-14.2011875077466</v>
       </c>
       <c r="B98" t="n">
-        <v>-29.68332758123386</v>
+        <v>34.44141892766863</v>
       </c>
       <c r="C98" t="n">
-        <v>-35.47308469355006</v>
+        <v>26.33851824054574</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>-36.57117714085566</v>
+        <v>-33.112635681147</v>
       </c>
       <c r="B99" t="n">
-        <v>-27.19876861178835</v>
+        <v>15.26288067195787</v>
       </c>
       <c r="C99" t="n">
-        <v>12.59041354729416</v>
+        <v>-29.15568432716818</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>28.72833845709999</v>
+        <v>-44.53706192074381</v>
       </c>
       <c r="B100" t="n">
-        <v>-17.76235729405677</v>
+        <v>-33.24182492710067</v>
       </c>
       <c r="C100" t="n">
-        <v>20.80260749314614</v>
+        <v>-36.85580783558715</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>-21.41116088391976</v>
+        <v>30.12883915166493</v>
       </c>
       <c r="B101" t="n">
-        <v>-35.71700586991326</v>
+        <v>-16.40356918018661</v>
       </c>
       <c r="C101" t="n">
-        <v>-19.53384075397943</v>
+        <v>9.505268742297533</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>-26.53232135565703</v>
+        <v>-28.22219267279644</v>
       </c>
       <c r="B102" t="n">
         <v>0</v>
@@ -3250,7 +3250,7 @@
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>27.1369871228435</v>
+        <v>20.58959744340271</v>
       </c>
       <c r="B103" t="n">
         <v>0</v>
@@ -3261,7 +3261,7 @@
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>22.43486569403866</v>
+        <v>-28.01282685428983</v>
       </c>
       <c r="B104" t="n">
         <v>0</v>
@@ -3272,7 +3272,7 @@
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>-4.722900119110128</v>
+        <v>-28.37052375472502</v>
       </c>
       <c r="B105" t="n">
         <v>0</v>
@@ -3283,7 +3283,7 @@
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>-16.94099157906975</v>
+        <v>43.2971833507884</v>
       </c>
       <c r="B106" t="n">
         <v>0</v>
@@ -3294,7 +3294,7 @@
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>40.30424970426272</v>
+        <v>-20.71555358114227</v>
       </c>
       <c r="B107" t="n">
         <v>0</v>
@@ -3305,7 +3305,7 @@
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>30.38496301930228</v>
+        <v>40.38659461231329</v>
       </c>
       <c r="B108" t="n">
         <v>0</v>
@@ -3316,7 +3316,7 @@
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>14.44869880350134</v>
+        <v>-33.83286193113105</v>
       </c>
       <c r="B109" t="n">
         <v>0</v>
@@ -3327,7 +3327,7 @@
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>23.50176709243401</v>
+        <v>24.55422415623237</v>
       </c>
       <c r="B110" t="n">
         <v>0</v>
@@ -3338,7 +3338,7 @@
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>-12.79448000595905</v>
+        <v>14.16157989448505</v>
       </c>
       <c r="B111" t="n">
         <v>0</v>
@@ -3349,7 +3349,7 @@
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>1.95549118644497</v>
+        <v>-25.56136741907463</v>
       </c>
       <c r="B112" t="n">
         <v>0</v>
@@ -3360,7 +3360,7 @@
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>-21.2333646518305</v>
+        <v>-30.99216576253273</v>
       </c>
       <c r="B113" t="n">
         <v>0</v>
@@ -3371,7 +3371,7 @@
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>-27.4751326861694</v>
+        <v>-19.55892987190027</v>
       </c>
       <c r="B114" t="n">
         <v>0</v>
@@ -3382,7 +3382,7 @@
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>-34.97618191876739</v>
+        <v>18.91841752195778</v>
       </c>
       <c r="B115" t="n">
         <v>0</v>
@@ -3393,7 +3393,7 @@
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>6.221972971749426</v>
+        <v>11.15700013953136</v>
       </c>
       <c r="B116" t="n">
         <v>0</v>
@@ -3404,7 +3404,7 @@
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>31.02406010991912</v>
+        <v>-29.82129194978605</v>
       </c>
       <c r="B117" t="n">
         <v>0</v>
@@ -3415,7 +3415,7 @@
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>-28.35671402113822</v>
+        <v>-43.42218490848312</v>
       </c>
       <c r="B118" t="n">
         <v>0</v>
@@ -3426,7 +3426,7 @@
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>-14.24298787774023</v>
+        <v>24.46259063998061</v>
       </c>
       <c r="B119" t="n">
         <v>0</v>
@@ -3437,7 +3437,7 @@
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>37.9620649231091</v>
+        <v>-21.79920286162248</v>
       </c>
       <c r="B120" t="n">
         <v>0</v>
@@ -3448,7 +3448,7 @@
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>-6.67956913348026</v>
+        <v>-21.75721393163146</v>
       </c>
       <c r="B121" t="n">
         <v>0</v>
@@ -3459,7 +3459,7 @@
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>-35.69746714610621</v>
+        <v>-19.46906243814101</v>
       </c>
       <c r="B122" t="n">
         <v>0</v>
@@ -3470,7 +3470,7 @@
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>-28.21233208596451</v>
+        <v>-27.08018354567427</v>
       </c>
       <c r="B123" t="n">
         <v>0</v>
@@ -3481,7 +3481,7 @@
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>17.01468130902521</v>
+        <v>-13.29576948809723</v>
       </c>
       <c r="B124" t="n">
         <v>0</v>
@@ -3492,7 +3492,7 @@
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>-15.93675342239543</v>
+        <v>-30.08875035089208</v>
       </c>
       <c r="B125" t="n">
         <v>0</v>
@@ -3503,7 +3503,7 @@
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>-12.19371638135716</v>
+        <v>-28.99432502395949</v>
       </c>
       <c r="B126" t="n">
         <v>0</v>
@@ -3514,7 +3514,7 @@
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>-21.5215808314422</v>
+        <v>26.06019443038115</v>
       </c>
       <c r="B127" t="n">
         <v>0</v>
@@ -3525,7 +3525,7 @@
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>11.02479122694164</v>
+        <v>15.13902647274589</v>
       </c>
       <c r="B128" t="n">
         <v>0</v>
@@ -3536,7 +3536,7 @@
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>-18.2321279915068</v>
+        <v>22.50238829611566</v>
       </c>
       <c r="B129" t="n">
         <v>0</v>
@@ -3547,7 +3547,7 @@
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>-22.98262911070445</v>
+        <v>-22.98859126618324</v>
       </c>
       <c r="B130" t="n">
         <v>0</v>
@@ -3558,7 +3558,7 @@
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>43.2769767347395</v>
+        <v>-35.53291277017432</v>
       </c>
       <c r="B131" t="n">
         <v>0</v>
@@ -3569,7 +3569,7 @@
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>-20.49507253759623</v>
+        <v>-36.13552047580519</v>
       </c>
       <c r="B132" t="n">
         <v>0</v>
@@ -3580,7 +3580,7 @@
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>25.5281201452523</v>
+        <v>-25.62809312130941</v>
       </c>
       <c r="B133" t="n">
         <v>0</v>
@@ -3591,7 +3591,7 @@
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>-6.265748097236221</v>
+        <v>27.65883691586533</v>
       </c>
       <c r="B134" t="n">
         <v>0</v>
@@ -3602,7 +3602,7 @@
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>-24.89450026955704</v>
+        <v>28.57951930924117</v>
       </c>
       <c r="B135" t="n">
         <v>0</v>
@@ -3613,7 +3613,7 @@
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>23.44592412571184</v>
+        <v>-27.22114946653097</v>
       </c>
       <c r="B136" t="n">
         <v>0</v>
@@ -3624,7 +3624,7 @@
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>35.51035342195969</v>
+        <v>-30.86794631300005</v>
       </c>
       <c r="B137" t="n">
         <v>0</v>
@@ -3635,7 +3635,7 @@
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>-20.22184114916326</v>
+        <v>13.05246693252113</v>
       </c>
       <c r="B138" t="n">
         <v>0</v>
@@ -3646,7 +3646,7 @@
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>-24.2193846809076</v>
+        <v>-42.35591769698353</v>
       </c>
       <c r="B139" t="n">
         <v>0</v>
@@ -3657,7 +3657,7 @@
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>12.31127138122478</v>
+        <v>35.16217703939278</v>
       </c>
       <c r="B140" t="n">
         <v>0</v>
@@ -3668,7 +3668,7 @@
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>-40.27604111227299</v>
+        <v>23.78042683262586</v>
       </c>
       <c r="B141" t="n">
         <v>0</v>
@@ -3679,7 +3679,7 @@
     </row>
     <row r="142">
       <c r="A142" t="n">
-        <v>-17.58209815306267</v>
+        <v>-32.5055174219408</v>
       </c>
       <c r="B142" t="n">
         <v>0</v>
@@ -3690,7 +3690,7 @@
     </row>
     <row r="143">
       <c r="A143" t="n">
-        <v>-5.694584453958876</v>
+        <v>21.42439314195574</v>
       </c>
       <c r="B143" t="n">
         <v>0</v>
@@ -3701,7 +3701,7 @@
     </row>
     <row r="144">
       <c r="A144" t="n">
-        <v>-28.40508089227037</v>
+        <v>-30.85752385769893</v>
       </c>
       <c r="B144" t="n">
         <v>0</v>
@@ -3712,7 +3712,7 @@
     </row>
     <row r="145">
       <c r="A145" t="n">
-        <v>20.38638064522775</v>
+        <v>25.45563257777232</v>
       </c>
       <c r="B145" t="n">
         <v>0</v>
@@ -3723,7 +3723,7 @@
     </row>
     <row r="146">
       <c r="A146" t="n">
-        <v>-35.73537382417923</v>
+        <v>26.50009775759853</v>
       </c>
       <c r="B146" t="n">
         <v>0</v>
@@ -3734,7 +3734,7 @@
     </row>
     <row r="147">
       <c r="A147" t="n">
-        <v>-26.52343084767596</v>
+        <v>16.04136444761584</v>
       </c>
       <c r="B147" t="n">
         <v>0</v>
@@ -3745,7 +3745,7 @@
     </row>
     <row r="148">
       <c r="A148" t="n">
-        <v>17.09473204227497</v>
+        <v>-22.89743409459332</v>
       </c>
       <c r="B148" t="n">
         <v>0</v>
@@ -3756,7 +3756,7 @@
     </row>
     <row r="149">
       <c r="A149" t="n">
-        <v>-27.69175525449252</v>
+        <v>-31.1848511185818</v>
       </c>
       <c r="B149" t="n">
         <v>0</v>
@@ -3767,7 +3767,7 @@
     </row>
     <row r="150">
       <c r="A150" t="n">
-        <v>-34.2318942584798</v>
+        <v>25.25300385130188</v>
       </c>
       <c r="B150" t="n">
         <v>0</v>
@@ -3778,7 +3778,7 @@
     </row>
     <row r="151">
       <c r="A151" t="n">
-        <v>-41.30516299983461</v>
+        <v>32.07406403669128</v>
       </c>
       <c r="B151" t="n">
         <v>0</v>
